--- a/index.xlsx
+++ b/index.xlsx
@@ -1,29 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
   <fonts count="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -42,80 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -440,92 +396,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>姓名</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>邮箱</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>pitousanfadetuzi@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>13376003432@163.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>003</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1652675907@qq.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>刘皓文</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2930277550@qq.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>何袁韬</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>已签到</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetData/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
 </worksheet>
 </file>